--- a/Metricas-Codigo/LEI-123285-Métodos.xlsx
+++ b/Metricas-Codigo/LEI-123285-Métodos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\Codigo\EngenhariaSoftware\app3\app\Metricas-Codigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5583C3B-69BD-4077-81E0-06457C5A26D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615E48DE-319D-4ED9-88C0-49EC4EEBEB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A6A387C1-871E-49C8-BAB7-ADFE43A174A9}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
   <si>
     <t>Method Name</t>
   </si>
@@ -197,6 +197,90 @@
   </si>
   <si>
     <t>com.example.examplefeature.ui.TaskListView.sortByPriority()</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>Método de entrada. Fora do escopo.</t>
+  </si>
+  <si>
+    <t>Usado no construtor de Task para inicializar cor aleatória. Boa abstração.</t>
+  </si>
+  <si>
+    <t>Fora do escopo.</t>
+  </si>
+  <si>
+    <t>Usado corretamente na TaskListView para toolbar.</t>
+  </si>
+  <si>
+    <t>Método utilitário de agrupamento. Boa prática.</t>
+  </si>
+  <si>
+    <t>Construtor padrão para Hibernate. Necessário.</t>
+  </si>
+  <si>
+    <t>Construtor principal. Inicializa descrição, data de criação e cor aleatória via ColorService. Boa prática: evita campos nulos</t>
+  </si>
+  <si>
+    <t>Implementação padrão. Fora do escopo do requisito</t>
+  </si>
+  <si>
+    <t>Getter simples. Boa manutenibilidade</t>
+  </si>
+  <si>
+    <t>Getter simples</t>
+  </si>
+  <si>
+    <t>Método central do requisito. Implementei prioridade dinâmica com base em dias até dueDate. Complexidade aceitável (CC=4). Uso de ChronoUnit é robusto. Alto esforço (HEF=700) sugere extração para PriorityCalculator para melhorar coesão e testabilidade.</t>
+  </si>
+  <si>
+    <t>Implementação padrão</t>
+  </si>
+  <si>
+    <t>Setter simples.</t>
+  </si>
+  <si>
+    <t>Setter com validação básica.</t>
+  </si>
+  <si>
+    <t>Construtor do enum. Boa prática.</t>
+  </si>
+  <si>
+    <t>Getter do enum.</t>
+  </si>
+  <si>
+    <t>Getter do enum. Usado na UI para badges.</t>
+  </si>
+  <si>
+    <t>Método estático gerado.</t>
+  </si>
+  <si>
+    <t>Método estático gerado</t>
+  </si>
+  <si>
+    <t>Método JPA gerado.</t>
+  </si>
+  <si>
+    <t>Injeção de dependência correta.</t>
+  </si>
+  <si>
+    <t>Método de criação. Fora do escopo do requisito, mas bem implementado.</t>
+  </si>
+  <si>
+    <t>Método base de listagem.</t>
+  </si>
+  <si>
+    <t>Implementei ordenação por prioridade usando Comparator.comparing(Task::getPriority). Baixa complexidade, alta manutenibilidade (MMI=71.25). Excelente uso de streams e method references.</t>
+  </si>
+  <si>
+    <t>Construtor extenso, mas bem estruturado. Configurei grid com colunas, badges de prioridade e cores de fundo.</t>
+  </si>
+  <si>
+    <t>Método de criação com notificação. Boa UX.</t>
+  </si>
+  <si>
+    <t>Adicionei botão e método para ordenar por prioridade. Atualiza grid via service. Boa separação de responsabilidades e feedback via Notification.</t>
   </si>
 </sst>
 </file>
@@ -680,8 +764,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1057,13 +1142,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93B3AA0-8A85-46F3-B4EF-C400B7279017}">
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Q26" workbookViewId="0">
+      <selection activeCell="V39" sqref="V39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="22" max="22" width="82.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1127,8 +1217,11 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1192,8 +1285,11 @@
       <c r="U2">
         <v>1</v>
       </c>
+      <c r="V2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1257,8 +1353,11 @@
       <c r="U3">
         <v>0</v>
       </c>
+      <c r="V3" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1322,8 +1421,11 @@
       <c r="U4">
         <v>0</v>
       </c>
+      <c r="V4" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1387,8 +1489,11 @@
       <c r="U5">
         <v>0</v>
       </c>
+      <c r="V5" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1452,8 +1557,11 @@
       <c r="U6">
         <v>0</v>
       </c>
+      <c r="V6" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1517,8 +1625,11 @@
       <c r="U7">
         <v>0</v>
       </c>
+      <c r="V7" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1582,8 +1693,11 @@
       <c r="U8">
         <v>1</v>
       </c>
+      <c r="V8" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1647,8 +1761,11 @@
       <c r="U9">
         <v>2</v>
       </c>
+      <c r="V9" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1712,8 +1829,11 @@
       <c r="U10">
         <v>1</v>
       </c>
+      <c r="V10" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1777,8 +1897,11 @@
       <c r="U11">
         <v>0</v>
       </c>
+      <c r="V11" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1842,8 +1965,11 @@
       <c r="U12">
         <v>2</v>
       </c>
+      <c r="V12" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1907,8 +2033,11 @@
       <c r="U13">
         <v>1</v>
       </c>
+      <c r="V13" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1972,8 +2101,11 @@
       <c r="U14">
         <v>0</v>
       </c>
+      <c r="V14" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2037,8 +2169,11 @@
       <c r="U15">
         <v>0</v>
       </c>
+      <c r="V15" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2102,8 +2237,11 @@
       <c r="U16">
         <v>0</v>
       </c>
+      <c r="V16" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2167,8 +2305,11 @@
       <c r="U17">
         <v>0</v>
       </c>
+      <c r="V17" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2232,8 +2373,11 @@
       <c r="U18">
         <v>0</v>
       </c>
+      <c r="V18" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2297,8 +2441,11 @@
       <c r="U19">
         <v>0</v>
       </c>
+      <c r="V19" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -2362,8 +2509,11 @@
       <c r="U20">
         <v>0</v>
       </c>
+      <c r="V20" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2427,8 +2577,11 @@
       <c r="U21">
         <v>1</v>
       </c>
+      <c r="V21" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2492,8 +2645,11 @@
       <c r="U22">
         <v>1</v>
       </c>
+      <c r="V22" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -2557,8 +2713,11 @@
       <c r="U23">
         <v>1</v>
       </c>
+      <c r="V23" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2622,8 +2781,11 @@
       <c r="U24">
         <v>2</v>
       </c>
+      <c r="V24" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -2687,8 +2849,11 @@
       <c r="U25">
         <v>0</v>
       </c>
+      <c r="V25" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -2752,8 +2917,11 @@
       <c r="U26">
         <v>0</v>
       </c>
+      <c r="V26" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -2817,8 +2985,11 @@
       <c r="U27">
         <v>1</v>
       </c>
+      <c r="V27" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -2882,8 +3053,11 @@
       <c r="U28">
         <v>0</v>
       </c>
+      <c r="V28" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -2947,8 +3121,11 @@
       <c r="U29">
         <v>1</v>
       </c>
+      <c r="V29" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -3012,8 +3189,11 @@
       <c r="U30">
         <v>1</v>
       </c>
+      <c r="V30" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -3077,8 +3257,11 @@
       <c r="U31">
         <v>2</v>
       </c>
+      <c r="V31" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -3142,8 +3325,11 @@
       <c r="U32">
         <v>1</v>
       </c>
+      <c r="V32" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -3207,8 +3393,11 @@
       <c r="U33">
         <v>1</v>
       </c>
+      <c r="V33" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -3272,8 +3461,11 @@
       <c r="U34">
         <v>1</v>
       </c>
+      <c r="V34" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -3337,8 +3529,11 @@
       <c r="U35">
         <v>0</v>
       </c>
+      <c r="V35" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -3401,6 +3596,9 @@
       </c>
       <c r="U36">
         <v>0</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
